--- a/patient_data/patient_53.xlsx
+++ b/patient_data/patient_53.xlsx
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
